--- a/backend/public/DTS_CNSS_FORMAT1.xlsx
+++ b/backend/public/DTS_CNSS_FORMAT1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Joel\sega\backend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joel\sega\backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF775E-0D40-4A30-8E3F-6371E45B2AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E536A-52DE-4DEF-BEB5-52AF9570B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>N°CNSS(a)/ N°CNAMGS</t>
-  </si>
-  <si>
     <t>N° Paie</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>MASSE SALARIALE PLAFONNEE CNSS</t>
   </si>
   <si>
-    <t xml:space="preserve">Taux CNSS( c )   %           </t>
-  </si>
-  <si>
     <t>Email : [s.email]</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>[s.effectif;ope=tbs:num]</t>
   </si>
   <si>
-    <t>[a.tx_cnss;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>[a.bpcnss1;ope=tbs:num]</t>
   </si>
   <si>
@@ -266,6 +257,15 @@
   </si>
   <si>
     <t>COTISATION GLOBALE DUE</t>
+  </si>
+  <si>
+    <t>N°CNSS(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taux CNSS( c )   % / Taux CNAMGS    </t>
+  </si>
+  <si>
+    <t>[a.tx_cnss]</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -737,38 +737,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -776,6 +754,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,15 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,17 +850,33 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1441,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P30" sqref="O30:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,12 +1605,12 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1642,17 +1633,17 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>6</v>
@@ -1664,20 +1655,20 @@
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1686,20 +1677,20 @@
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1708,9 +1699,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1780,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -1813,7 +1804,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
@@ -1824,12 +1815,12 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="A19" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1838,12 +1829,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="63" t="s">
+      <c r="M19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="73"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -1864,31 +1855,29 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="74" t="s">
+      <c r="M20" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
-      <c r="B21" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="B21" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="80">
-        <v>0</v>
-      </c>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="N21" s="2"/>
@@ -1921,22 +1910,20 @@
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="B23" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="40">
-        <v>0</v>
-      </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
       <c r="L23" s="2"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20"/>
@@ -1967,124 +1954,124 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="45" t="s">
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
     </row>
     <row r="26" spans="1:16" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="G26" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="H26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="J26" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="K26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="L26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="E27" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="G27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="32" t="s">
+      <c r="K27" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="L27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="M27" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="N27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="O27" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2107,79 +2094,64 @@
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="C29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="D29" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I29" s="35"/>
       <c r="J29" s="36"/>
       <c r="K29" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L29" s="35"/>
       <c r="M29" s="36"/>
       <c r="N29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" s="87"/>
+      <c r="P30" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="M13:P17"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
+  <mergeCells count="20">
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
@@ -2187,6 +2159,19 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="M13:P17"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="M12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
